--- a/Test/MC_Ssf/T1/Sensors_data_1000002.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000002.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1158543620401571</v>
+        <v>0.9759286548245898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04042511343533978</v>
+        <v>0.0008720554333614327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3805036599755779</v>
+        <v>-0.003389982171950356</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.655493175620842</v>
+        <v>0.7542222252647206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01383644547797813</v>
+        <v>0.009871185530074567</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2855968365555887</v>
+        <v>0.2824949201058937</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.107381388556997</v>
+        <v>0.4540704712713131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04361475037668759</v>
+        <v>0.01129865730429952</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3295447264991248</v>
+        <v>0.317254430723189</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8368883915768629</v>
+        <v>0.7512561321553797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007049637378029883</v>
+        <v>0.01075063930314614</v>
       </c>
       <c r="E5" t="n">
-        <v>9.020405059345649e-06</v>
+        <v>0.0001694700648045</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
